--- a/po_analysis_by_asin/B0CDJLSZ73_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDJLSZ73_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,143 +452,143 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>840</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45390</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>640</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45446</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>120</v>
@@ -596,55 +596,55 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45474</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45488</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45495</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45509</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45537</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45544</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>40</v>
@@ -652,31 +652,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45551</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45558</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45572</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45579</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>80</v>
@@ -684,25 +684,129 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45586</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45593</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45614</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B33" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B46" t="n">
         <v>160</v>
       </c>
     </row>
@@ -717,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,89 +843,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1020</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1320</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>820</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>920</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>440</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>480</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>640</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>160</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CDJLSZ73_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDJLSZ73_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,23 +620,23 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>360</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>40</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>40</v>
@@ -652,39 +652,39 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>640</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>120</v>
@@ -692,121 +692,113 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45620.99999999999</v>
-      </c>
-      <c r="B46" t="n">
         <v>160</v>
       </c>
     </row>
@@ -902,7 +894,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>820</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10">

--- a/po_analysis_by_asin/B0CDJLSZ73_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDJLSZ73_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -829,7 +830,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -959,6 +960,775 @@
       </c>
       <c r="B17" t="n">
         <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>204</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-32.55064043525615</v>
+      </c>
+      <c r="D2" t="n">
+        <v>430.2274596387181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>203</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-31.57354866825045</v>
+      </c>
+      <c r="D3" t="n">
+        <v>438.6746964330746</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>203</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-23.16733325399984</v>
+      </c>
+      <c r="D4" t="n">
+        <v>430.7941638761689</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>201</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-46.56725261573204</v>
+      </c>
+      <c r="D5" t="n">
+        <v>427.5976145052636</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-35.91328321814197</v>
+      </c>
+      <c r="D6" t="n">
+        <v>436.6316400844664</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>199</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-26.73687865278275</v>
+      </c>
+      <c r="D7" t="n">
+        <v>434.4573990036204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>199</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-43.91352446853358</v>
+      </c>
+      <c r="D8" t="n">
+        <v>432.8260834266584</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>198</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-46.31162974531042</v>
+      </c>
+      <c r="D9" t="n">
+        <v>411.7519603941259</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>197</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-25.0230231751175</v>
+      </c>
+      <c r="D10" t="n">
+        <v>428.7431866337008</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>197</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-34.40153720460361</v>
+      </c>
+      <c r="D11" t="n">
+        <v>435.2689336150852</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>196</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-33.34865263757575</v>
+      </c>
+      <c r="D12" t="n">
+        <v>439.9420524601638</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>195</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-44.60066707468547</v>
+      </c>
+      <c r="D13" t="n">
+        <v>434.3011085949782</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>195</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-46.21800887216153</v>
+      </c>
+      <c r="D14" t="n">
+        <v>420.6668224382052</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>193</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-29.84112207494589</v>
+      </c>
+      <c r="D15" t="n">
+        <v>413.1754443191113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>193</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-35.75156420509585</v>
+      </c>
+      <c r="D16" t="n">
+        <v>425.0086223511225</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>192</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-27.2108542331915</v>
+      </c>
+      <c r="D17" t="n">
+        <v>418.9555306318125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>191</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-34.06936478958026</v>
+      </c>
+      <c r="D18" t="n">
+        <v>424.9151780099792</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>190</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-45.9025589085552</v>
+      </c>
+      <c r="D19" t="n">
+        <v>412.1937658356766</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>190</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-53.8234447469605</v>
+      </c>
+      <c r="D20" t="n">
+        <v>419.0005034127905</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>189</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-48.1851564669348</v>
+      </c>
+      <c r="D21" t="n">
+        <v>420.3684944147423</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>189</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-48.87264857988073</v>
+      </c>
+      <c r="D22" t="n">
+        <v>414.6682500799454</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>188</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-32.73731378347163</v>
+      </c>
+      <c r="D23" t="n">
+        <v>434.117470385173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>187</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-40.45192464703468</v>
+      </c>
+      <c r="D24" t="n">
+        <v>420.3484965458568</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>186</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-52.98725753684488</v>
+      </c>
+      <c r="D25" t="n">
+        <v>424.8420181510267</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>185</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-46.70109803760162</v>
+      </c>
+      <c r="D26" t="n">
+        <v>417.6370043623736</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>185</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-26.67641808651074</v>
+      </c>
+      <c r="D27" t="n">
+        <v>409.6060038577995</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>184</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-54.45717238737602</v>
+      </c>
+      <c r="D28" t="n">
+        <v>410.9560910374474</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>184</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-51.1127269201232</v>
+      </c>
+      <c r="D29" t="n">
+        <v>413.2741888904006</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>183</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-55.45707914954777</v>
+      </c>
+      <c r="D30" t="n">
+        <v>418.6353770153341</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>182</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-57.00614311040298</v>
+      </c>
+      <c r="D31" t="n">
+        <v>415.3883828164034</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>180</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-48.89319715366598</v>
+      </c>
+      <c r="D32" t="n">
+        <v>413.1283559828217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>180</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-62.8612336779255</v>
+      </c>
+      <c r="D33" t="n">
+        <v>404.2649824417459</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>179</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-43.71360496044021</v>
+      </c>
+      <c r="D34" t="n">
+        <v>414.0649747990662</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>178</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-54.68764460790966</v>
+      </c>
+      <c r="D35" t="n">
+        <v>400.3957720020593</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>177</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-40.67955229445016</v>
+      </c>
+      <c r="D36" t="n">
+        <v>411.788921877631</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>175</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-63.18200937976218</v>
+      </c>
+      <c r="D37" t="n">
+        <v>409.6965213115236</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>175</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-54.43267027615747</v>
+      </c>
+      <c r="D38" t="n">
+        <v>415.9905536813082</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>174</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-58.55226845031756</v>
+      </c>
+      <c r="D39" t="n">
+        <v>411.1299913892874</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>174</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-45.49751795997836</v>
+      </c>
+      <c r="D40" t="n">
+        <v>387.6064504158395</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>173</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-63.34652630564956</v>
+      </c>
+      <c r="D41" t="n">
+        <v>410.0981814388686</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>172</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-45.89084094578814</v>
+      </c>
+      <c r="D42" t="n">
+        <v>389.7733078430113</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>172</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-64.41444638341024</v>
+      </c>
+      <c r="D43" t="n">
+        <v>391.075287280995</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>171</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-48.94701153990947</v>
+      </c>
+      <c r="D44" t="n">
+        <v>389.6678759731209</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>170</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-39.11343603665462</v>
+      </c>
+      <c r="D45" t="n">
+        <v>416.7372449146417</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>169</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-61.08280828530975</v>
+      </c>
+      <c r="D46" t="n">
+        <v>411.246086906633</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>169</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-51.46442994181664</v>
+      </c>
+      <c r="D47" t="n">
+        <v>406.0469483277885</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>168</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-70.34364112938175</v>
+      </c>
+      <c r="D48" t="n">
+        <v>398.6860508582676</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>168</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-72.62668243985401</v>
+      </c>
+      <c r="D49" t="n">
+        <v>388.8123680679867</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>167</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-75.72779800613267</v>
+      </c>
+      <c r="D50" t="n">
+        <v>386.6159846176084</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>167</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-83.52236473663471</v>
+      </c>
+      <c r="D51" t="n">
+        <v>417.002029209577</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>166</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-75.73951742308358</v>
+      </c>
+      <c r="D52" t="n">
+        <v>400.8996939062923</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>166</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-82.11479135944712</v>
+      </c>
+      <c r="D53" t="n">
+        <v>397.0263678307568</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CDJLSZ73_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDJLSZ73_po_data.xlsx
@@ -973,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,16 +992,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1010,12 +1000,6 @@
       <c r="B2" t="n">
         <v>204</v>
       </c>
-      <c r="C2" t="n">
-        <v>-32.55064043525615</v>
-      </c>
-      <c r="D2" t="n">
-        <v>430.2274596387181</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1024,12 +1008,6 @@
       <c r="B3" t="n">
         <v>203</v>
       </c>
-      <c r="C3" t="n">
-        <v>-31.57354866825045</v>
-      </c>
-      <c r="D3" t="n">
-        <v>438.6746964330746</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1038,12 +1016,6 @@
       <c r="B4" t="n">
         <v>203</v>
       </c>
-      <c r="C4" t="n">
-        <v>-23.16733325399984</v>
-      </c>
-      <c r="D4" t="n">
-        <v>430.7941638761689</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1052,12 +1024,6 @@
       <c r="B5" t="n">
         <v>201</v>
       </c>
-      <c r="C5" t="n">
-        <v>-46.56725261573204</v>
-      </c>
-      <c r="D5" t="n">
-        <v>427.5976145052636</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1066,12 +1032,6 @@
       <c r="B6" t="n">
         <v>200</v>
       </c>
-      <c r="C6" t="n">
-        <v>-35.91328321814197</v>
-      </c>
-      <c r="D6" t="n">
-        <v>436.6316400844664</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1080,12 +1040,6 @@
       <c r="B7" t="n">
         <v>199</v>
       </c>
-      <c r="C7" t="n">
-        <v>-26.73687865278275</v>
-      </c>
-      <c r="D7" t="n">
-        <v>434.4573990036204</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1094,12 +1048,6 @@
       <c r="B8" t="n">
         <v>199</v>
       </c>
-      <c r="C8" t="n">
-        <v>-43.91352446853358</v>
-      </c>
-      <c r="D8" t="n">
-        <v>432.8260834266584</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1108,12 +1056,6 @@
       <c r="B9" t="n">
         <v>198</v>
       </c>
-      <c r="C9" t="n">
-        <v>-46.31162974531042</v>
-      </c>
-      <c r="D9" t="n">
-        <v>411.7519603941259</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1122,12 +1064,6 @@
       <c r="B10" t="n">
         <v>197</v>
       </c>
-      <c r="C10" t="n">
-        <v>-25.0230231751175</v>
-      </c>
-      <c r="D10" t="n">
-        <v>428.7431866337008</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1136,12 +1072,6 @@
       <c r="B11" t="n">
         <v>197</v>
       </c>
-      <c r="C11" t="n">
-        <v>-34.40153720460361</v>
-      </c>
-      <c r="D11" t="n">
-        <v>435.2689336150852</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1150,12 +1080,6 @@
       <c r="B12" t="n">
         <v>196</v>
       </c>
-      <c r="C12" t="n">
-        <v>-33.34865263757575</v>
-      </c>
-      <c r="D12" t="n">
-        <v>439.9420524601638</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1164,12 +1088,6 @@
       <c r="B13" t="n">
         <v>195</v>
       </c>
-      <c r="C13" t="n">
-        <v>-44.60066707468547</v>
-      </c>
-      <c r="D13" t="n">
-        <v>434.3011085949782</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1178,12 +1096,6 @@
       <c r="B14" t="n">
         <v>195</v>
       </c>
-      <c r="C14" t="n">
-        <v>-46.21800887216153</v>
-      </c>
-      <c r="D14" t="n">
-        <v>420.6668224382052</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1192,12 +1104,6 @@
       <c r="B15" t="n">
         <v>193</v>
       </c>
-      <c r="C15" t="n">
-        <v>-29.84112207494589</v>
-      </c>
-      <c r="D15" t="n">
-        <v>413.1754443191113</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1206,12 +1112,6 @@
       <c r="B16" t="n">
         <v>193</v>
       </c>
-      <c r="C16" t="n">
-        <v>-35.75156420509585</v>
-      </c>
-      <c r="D16" t="n">
-        <v>425.0086223511225</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1220,12 +1120,6 @@
       <c r="B17" t="n">
         <v>192</v>
       </c>
-      <c r="C17" t="n">
-        <v>-27.2108542331915</v>
-      </c>
-      <c r="D17" t="n">
-        <v>418.9555306318125</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1234,12 +1128,6 @@
       <c r="B18" t="n">
         <v>191</v>
       </c>
-      <c r="C18" t="n">
-        <v>-34.06936478958026</v>
-      </c>
-      <c r="D18" t="n">
-        <v>424.9151780099792</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1248,12 +1136,6 @@
       <c r="B19" t="n">
         <v>190</v>
       </c>
-      <c r="C19" t="n">
-        <v>-45.9025589085552</v>
-      </c>
-      <c r="D19" t="n">
-        <v>412.1937658356766</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1262,12 +1144,6 @@
       <c r="B20" t="n">
         <v>190</v>
       </c>
-      <c r="C20" t="n">
-        <v>-53.8234447469605</v>
-      </c>
-      <c r="D20" t="n">
-        <v>419.0005034127905</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1276,12 +1152,6 @@
       <c r="B21" t="n">
         <v>189</v>
       </c>
-      <c r="C21" t="n">
-        <v>-48.1851564669348</v>
-      </c>
-      <c r="D21" t="n">
-        <v>420.3684944147423</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1290,12 +1160,6 @@
       <c r="B22" t="n">
         <v>189</v>
       </c>
-      <c r="C22" t="n">
-        <v>-48.87264857988073</v>
-      </c>
-      <c r="D22" t="n">
-        <v>414.6682500799454</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1304,12 +1168,6 @@
       <c r="B23" t="n">
         <v>188</v>
       </c>
-      <c r="C23" t="n">
-        <v>-32.73731378347163</v>
-      </c>
-      <c r="D23" t="n">
-        <v>434.117470385173</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1318,12 +1176,6 @@
       <c r="B24" t="n">
         <v>187</v>
       </c>
-      <c r="C24" t="n">
-        <v>-40.45192464703468</v>
-      </c>
-      <c r="D24" t="n">
-        <v>420.3484965458568</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1332,12 +1184,6 @@
       <c r="B25" t="n">
         <v>186</v>
       </c>
-      <c r="C25" t="n">
-        <v>-52.98725753684488</v>
-      </c>
-      <c r="D25" t="n">
-        <v>424.8420181510267</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1346,12 +1192,6 @@
       <c r="B26" t="n">
         <v>185</v>
       </c>
-      <c r="C26" t="n">
-        <v>-46.70109803760162</v>
-      </c>
-      <c r="D26" t="n">
-        <v>417.6370043623736</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1360,12 +1200,6 @@
       <c r="B27" t="n">
         <v>185</v>
       </c>
-      <c r="C27" t="n">
-        <v>-26.67641808651074</v>
-      </c>
-      <c r="D27" t="n">
-        <v>409.6060038577995</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1374,12 +1208,6 @@
       <c r="B28" t="n">
         <v>184</v>
       </c>
-      <c r="C28" t="n">
-        <v>-54.45717238737602</v>
-      </c>
-      <c r="D28" t="n">
-        <v>410.9560910374474</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1388,12 +1216,6 @@
       <c r="B29" t="n">
         <v>184</v>
       </c>
-      <c r="C29" t="n">
-        <v>-51.1127269201232</v>
-      </c>
-      <c r="D29" t="n">
-        <v>413.2741888904006</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1402,12 +1224,6 @@
       <c r="B30" t="n">
         <v>183</v>
       </c>
-      <c r="C30" t="n">
-        <v>-55.45707914954777</v>
-      </c>
-      <c r="D30" t="n">
-        <v>418.6353770153341</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1416,12 +1232,6 @@
       <c r="B31" t="n">
         <v>182</v>
       </c>
-      <c r="C31" t="n">
-        <v>-57.00614311040298</v>
-      </c>
-      <c r="D31" t="n">
-        <v>415.3883828164034</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1430,12 +1240,6 @@
       <c r="B32" t="n">
         <v>180</v>
       </c>
-      <c r="C32" t="n">
-        <v>-48.89319715366598</v>
-      </c>
-      <c r="D32" t="n">
-        <v>413.1283559828217</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1444,12 +1248,6 @@
       <c r="B33" t="n">
         <v>180</v>
       </c>
-      <c r="C33" t="n">
-        <v>-62.8612336779255</v>
-      </c>
-      <c r="D33" t="n">
-        <v>404.2649824417459</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1458,12 +1256,6 @@
       <c r="B34" t="n">
         <v>179</v>
       </c>
-      <c r="C34" t="n">
-        <v>-43.71360496044021</v>
-      </c>
-      <c r="D34" t="n">
-        <v>414.0649747990662</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1472,12 +1264,6 @@
       <c r="B35" t="n">
         <v>178</v>
       </c>
-      <c r="C35" t="n">
-        <v>-54.68764460790966</v>
-      </c>
-      <c r="D35" t="n">
-        <v>400.3957720020593</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1486,12 +1272,6 @@
       <c r="B36" t="n">
         <v>177</v>
       </c>
-      <c r="C36" t="n">
-        <v>-40.67955229445016</v>
-      </c>
-      <c r="D36" t="n">
-        <v>411.788921877631</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1500,12 +1280,6 @@
       <c r="B37" t="n">
         <v>175</v>
       </c>
-      <c r="C37" t="n">
-        <v>-63.18200937976218</v>
-      </c>
-      <c r="D37" t="n">
-        <v>409.6965213115236</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1514,12 +1288,6 @@
       <c r="B38" t="n">
         <v>175</v>
       </c>
-      <c r="C38" t="n">
-        <v>-54.43267027615747</v>
-      </c>
-      <c r="D38" t="n">
-        <v>415.9905536813082</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1528,12 +1296,6 @@
       <c r="B39" t="n">
         <v>174</v>
       </c>
-      <c r="C39" t="n">
-        <v>-58.55226845031756</v>
-      </c>
-      <c r="D39" t="n">
-        <v>411.1299913892874</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1542,12 +1304,6 @@
       <c r="B40" t="n">
         <v>174</v>
       </c>
-      <c r="C40" t="n">
-        <v>-45.49751795997836</v>
-      </c>
-      <c r="D40" t="n">
-        <v>387.6064504158395</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1556,12 +1312,6 @@
       <c r="B41" t="n">
         <v>173</v>
       </c>
-      <c r="C41" t="n">
-        <v>-63.34652630564956</v>
-      </c>
-      <c r="D41" t="n">
-        <v>410.0981814388686</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1570,12 +1320,6 @@
       <c r="B42" t="n">
         <v>172</v>
       </c>
-      <c r="C42" t="n">
-        <v>-45.89084094578814</v>
-      </c>
-      <c r="D42" t="n">
-        <v>389.7733078430113</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1584,12 +1328,6 @@
       <c r="B43" t="n">
         <v>172</v>
       </c>
-      <c r="C43" t="n">
-        <v>-64.41444638341024</v>
-      </c>
-      <c r="D43" t="n">
-        <v>391.075287280995</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1598,12 +1336,6 @@
       <c r="B44" t="n">
         <v>171</v>
       </c>
-      <c r="C44" t="n">
-        <v>-48.94701153990947</v>
-      </c>
-      <c r="D44" t="n">
-        <v>389.6678759731209</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1612,12 +1344,6 @@
       <c r="B45" t="n">
         <v>170</v>
       </c>
-      <c r="C45" t="n">
-        <v>-39.11343603665462</v>
-      </c>
-      <c r="D45" t="n">
-        <v>416.7372449146417</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1626,12 +1352,6 @@
       <c r="B46" t="n">
         <v>169</v>
       </c>
-      <c r="C46" t="n">
-        <v>-61.08280828530975</v>
-      </c>
-      <c r="D46" t="n">
-        <v>411.246086906633</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1640,12 +1360,6 @@
       <c r="B47" t="n">
         <v>169</v>
       </c>
-      <c r="C47" t="n">
-        <v>-51.46442994181664</v>
-      </c>
-      <c r="D47" t="n">
-        <v>406.0469483277885</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1654,12 +1368,6 @@
       <c r="B48" t="n">
         <v>168</v>
       </c>
-      <c r="C48" t="n">
-        <v>-70.34364112938175</v>
-      </c>
-      <c r="D48" t="n">
-        <v>398.6860508582676</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1668,12 +1376,6 @@
       <c r="B49" t="n">
         <v>168</v>
       </c>
-      <c r="C49" t="n">
-        <v>-72.62668243985401</v>
-      </c>
-      <c r="D49" t="n">
-        <v>388.8123680679867</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1682,12 +1384,6 @@
       <c r="B50" t="n">
         <v>167</v>
       </c>
-      <c r="C50" t="n">
-        <v>-75.72779800613267</v>
-      </c>
-      <c r="D50" t="n">
-        <v>386.6159846176084</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1696,12 +1392,6 @@
       <c r="B51" t="n">
         <v>167</v>
       </c>
-      <c r="C51" t="n">
-        <v>-83.52236473663471</v>
-      </c>
-      <c r="D51" t="n">
-        <v>417.002029209577</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1710,12 +1400,6 @@
       <c r="B52" t="n">
         <v>166</v>
       </c>
-      <c r="C52" t="n">
-        <v>-75.73951742308358</v>
-      </c>
-      <c r="D52" t="n">
-        <v>400.8996939062923</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1723,12 +1407,6 @@
       </c>
       <c r="B53" t="n">
         <v>166</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-82.11479135944712</v>
-      </c>
-      <c r="D53" t="n">
-        <v>397.0263678307568</v>
       </c>
     </row>
   </sheetData>
